--- a/transfer/release/0623/CRZITP 47/CodeReview CheckList v1.11_income-v2.09.350.xlsx
+++ b/transfer/release/0623/CRZITP 47/CodeReview CheckList v1.11_income-v2.09.350.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\income-configuration-changelog\Deploy-Income\2021\0623\CRQ000000_CRZITP47\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\income-configuration-changelog\Deploy-Income\2021\0623\CRQ000000201679_CRZITP47\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5749A3-3515-4A64-9AA1-F2BA99D0EB68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726578D-1CAD-4746-AAD0-EE528ACB28E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="17717" windowHeight="9606" tabRatio="812" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="17717" windowHeight="9606" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="11" r:id="rId1"/>
@@ -2306,7 +2306,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>CRQ000000/ CRZITP-47</t>
+    <t>CRQ000000201679/ CRZITP-47</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2954,6 +2954,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2963,9 +2975,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2975,24 +2984,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3023,6 +3023,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3032,9 +3035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3044,27 +3044,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3083,17 +3083,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3164,11 +3164,11 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>179408</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>86811</xdr:rowOff>
+          <xdr:rowOff>86810</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>300943</xdr:colOff>
+          <xdr:colOff>300942</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>92597</xdr:rowOff>
         </xdr:to>
@@ -3180,7 +3180,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9795DF84-7573-49FD-AC4C-2211B5392430}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3201,23 +3201,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3496,8 +3483,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" x14ac:dyDescent="0.25"/>
@@ -3509,107 +3496,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="113" t="s">
         <v>419</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="111" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="117" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="118">
+      <c r="B5" s="111"/>
+      <c r="C5" s="120">
         <v>44355</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="117" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="110">
+      <c r="B7" s="119"/>
+      <c r="C7" s="114">
         <v>1</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="9" spans="1:9" ht="29.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -3780,26 +3767,20 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="45.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:I22"/>
@@ -3809,6 +3790,12 @@
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3847,16 +3834,16 @@
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="145" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -3874,11 +3861,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -3892,9 +3879,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -3908,9 +3895,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
@@ -3940,21 +3927,21 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
@@ -3972,11 +3959,11 @@
       <c r="E10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
     </row>
     <row r="11" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -3990,9 +3977,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
@@ -4011,16 +3998,16 @@
       <c r="H12" s="152"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
@@ -4038,11 +4025,11 @@
       <c r="E15" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -4056,9 +4043,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="143"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
@@ -4072,12 +4059,18 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A9:H9"/>
@@ -4087,12 +4080,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,22 +4103,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" s="23" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -4149,11 +4136,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -4167,9 +4154,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -4183,9 +4170,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -4199,9 +4186,9 @@
       <c r="E6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -4215,9 +4202,9 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -4231,9 +4218,9 @@
       <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -4247,9 +4234,9 @@
       <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -4263,9 +4250,9 @@
       <c r="E10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -4279,9 +4266,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -4295,9 +4282,9 @@
       <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
@@ -4311,9 +4298,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
@@ -4327,9 +4314,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -4343,9 +4330,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -4359,9 +4346,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -4375,9 +4362,9 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -4391,9 +4378,9 @@
       <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -4407,9 +4394,9 @@
       <c r="E19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
@@ -4423,9 +4410,9 @@
       <c r="E20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
@@ -4439,9 +4426,9 @@
       <c r="E21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -4455,9 +4442,9 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -4471,9 +4458,9 @@
       <c r="E23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -4487,9 +4474,9 @@
       <c r="E24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -4503,9 +4490,9 @@
       <c r="E25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -4519,9 +4506,9 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="135"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
@@ -4535,9 +4522,9 @@
       <c r="E27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
@@ -4551,9 +4538,9 @@
       <c r="E28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136"/>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
@@ -4567,9 +4554,9 @@
       <c r="E29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="136"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -4583,9 +4570,9 @@
       <c r="E30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="136"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -4599,9 +4586,9 @@
       <c r="E31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
@@ -4615,9 +4602,9 @@
       <c r="E32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
@@ -4631,9 +4618,9 @@
       <c r="E33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
@@ -4647,9 +4634,9 @@
       <c r="E34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
@@ -4663,9 +4650,9 @@
       <c r="E35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
@@ -4679,9 +4666,9 @@
       <c r="E36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
@@ -4695,9 +4682,9 @@
       <c r="E37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
@@ -4711,9 +4698,9 @@
       <c r="E38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
@@ -4727,9 +4714,9 @@
       <c r="E39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
@@ -4743,9 +4730,9 @@
       <c r="E40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -4759,9 +4746,9 @@
       <c r="E41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -4775,9 +4762,9 @@
       <c r="E42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
@@ -4791,9 +4778,9 @@
       <c r="E43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
@@ -4854,9 +4841,9 @@
       <c r="E48" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="133"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="135"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="136"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="70">
@@ -4870,9 +4857,9 @@
       <c r="E49" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="136"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="70">
@@ -4886,12 +4873,48 @@
       <c r="E50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="133"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="135"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
@@ -4904,42 +4927,6 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,22 +4951,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -4997,11 +4984,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
@@ -5467,7 +5454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447E8F12-6A68-49F8-8401-1D71668DBFE0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5532,23 +5519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -5566,11 +5553,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="69" t="s">
         <v>28</v>
       </c>
@@ -5587,9 +5574,9 @@
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="74"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="70">
         <v>1</v>
       </c>
@@ -5606,9 +5593,9 @@
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="74"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="70">
         <v>3</v>
       </c>
@@ -5625,9 +5612,9 @@
       </c>
       <c r="D6" s="100"/>
       <c r="E6" s="74"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="70">
         <v>3</v>
       </c>
@@ -5644,9 +5631,9 @@
       </c>
       <c r="D7" s="100"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="70">
         <v>1</v>
       </c>
@@ -5663,9 +5650,9 @@
         <v>420</v>
       </c>
       <c r="E8" s="78"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="70">
         <v>2</v>
       </c>
@@ -5682,9 +5669,9 @@
       </c>
       <c r="D9" s="100"/>
       <c r="E9" s="78"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="70">
         <v>3</v>
       </c>
@@ -5701,9 +5688,9 @@
         <v>420</v>
       </c>
       <c r="E10" s="78"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
       <c r="I10" s="70">
         <v>1</v>
       </c>
@@ -5720,9 +5707,9 @@
       </c>
       <c r="D11" s="100"/>
       <c r="E11" s="78"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="70">
         <v>2</v>
       </c>
@@ -5787,9 +5774,9 @@
       <c r="D15" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="112"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="70">
         <v>1</v>
       </c>
@@ -5806,9 +5793,9 @@
       </c>
       <c r="D16" s="78"/>
       <c r="E16" s="74"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="70">
         <v>2</v>
       </c>
@@ -5825,9 +5812,9 @@
       </c>
       <c r="D17" s="78"/>
       <c r="E17" s="74"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="I17" s="70">
         <v>3</v>
       </c>
@@ -5844,9 +5831,9 @@
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
       <c r="I18" s="70">
         <v>2</v>
       </c>
@@ -5901,9 +5888,9 @@
       </c>
       <c r="D22" s="97"/>
       <c r="E22" s="79"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="70">
         <v>1</v>
       </c>
@@ -5920,9 +5907,9 @@
       </c>
       <c r="D23" s="97"/>
       <c r="E23" s="79"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="70">
         <v>1</v>
       </c>
@@ -5939,25 +5926,25 @@
       </c>
       <c r="D24" s="97"/>
       <c r="E24" s="79"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
@@ -5975,11 +5962,11 @@
       <c r="E27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="69" t="s">
         <v>28</v>
       </c>
@@ -5996,9 +5983,9 @@
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="74"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="112"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
       <c r="I28" s="74">
         <v>2</v>
       </c>
@@ -6015,9 +6002,9 @@
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="70"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
       <c r="I29" s="70">
         <v>1</v>
       </c>
@@ -6034,9 +6021,9 @@
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="70"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
       <c r="I30" s="70">
         <v>2</v>
       </c>
@@ -6053,9 +6040,9 @@
       </c>
       <c r="D31" s="98"/>
       <c r="E31" s="70"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="112"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
       <c r="I31" s="70">
         <v>1</v>
       </c>
@@ -6072,9 +6059,9 @@
       </c>
       <c r="D32" s="98"/>
       <c r="E32" s="70"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="70">
         <v>3</v>
       </c>
@@ -6091,9 +6078,9 @@
       </c>
       <c r="D33" s="98"/>
       <c r="E33" s="70"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="112"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
       <c r="I33" s="70">
         <v>3</v>
       </c>
@@ -6110,9 +6097,9 @@
         <v>25</v>
       </c>
       <c r="E34" s="70"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="112"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
       <c r="I34" s="70">
         <v>2</v>
       </c>
@@ -6129,9 +6116,9 @@
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="70"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="112"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="116"/>
       <c r="I35" s="70">
         <v>2</v>
       </c>
@@ -6148,9 +6135,9 @@
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="70"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="112"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
       <c r="I36" s="70">
         <v>1</v>
       </c>
@@ -6167,9 +6154,9 @@
       </c>
       <c r="D37" s="98"/>
       <c r="E37" s="70"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="112"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
       <c r="I37" s="70">
         <v>3</v>
       </c>
@@ -6186,9 +6173,9 @@
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="112"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
       <c r="I38" s="70">
         <v>1</v>
       </c>
@@ -6205,9 +6192,9 @@
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="112"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
       <c r="I39" s="70">
         <v>1</v>
       </c>
@@ -6224,9 +6211,9 @@
       </c>
       <c r="D40" s="78"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="112"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
       <c r="I40" s="70">
         <v>2</v>
       </c>
@@ -6243,9 +6230,9 @@
       </c>
       <c r="D41" s="78"/>
       <c r="E41" s="70"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="112"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
       <c r="I41" s="70">
         <v>2</v>
       </c>
@@ -6262,9 +6249,9 @@
       </c>
       <c r="D42" s="78"/>
       <c r="E42" s="70"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="112"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
       <c r="I42" s="70">
         <v>2</v>
       </c>
@@ -6281,9 +6268,9 @@
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="70"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="116"/>
       <c r="I43" s="70">
         <v>2</v>
       </c>
@@ -6300,9 +6287,9 @@
       </c>
       <c r="D44" s="78"/>
       <c r="E44" s="70"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="112"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="116"/>
       <c r="I44" s="70">
         <v>2</v>
       </c>
@@ -6317,17 +6304,17 @@
       <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70">
@@ -6341,9 +6328,9 @@
       </c>
       <c r="D47" s="97"/>
       <c r="E47" s="74"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="112"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="116"/>
       <c r="I47" s="70">
         <v>1</v>
       </c>
@@ -6358,17 +6345,17 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="121"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
@@ -6407,9 +6394,9 @@
       </c>
       <c r="D51" s="97"/>
       <c r="E51" s="70"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="112"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
       <c r="I51" s="70"/>
     </row>
     <row r="52" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,9 +6411,9 @@
       </c>
       <c r="D52" s="97"/>
       <c r="E52" s="70"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="112"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
       <c r="I52" s="70"/>
     </row>
     <row r="53" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6441,9 +6428,9 @@
       </c>
       <c r="D53" s="97"/>
       <c r="E53" s="70"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="112"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="116"/>
       <c r="I53" s="70"/>
     </row>
     <row r="54" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6458,9 +6445,9 @@
       </c>
       <c r="D54" s="97"/>
       <c r="E54" s="70"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="112"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
       <c r="I54" s="70"/>
     </row>
     <row r="55" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6475,9 +6462,9 @@
       </c>
       <c r="D55" s="97"/>
       <c r="E55" s="70"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="112"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
       <c r="I55" s="70"/>
     </row>
     <row r="56" spans="1:9" ht="29.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -6492,9 +6479,9 @@
       </c>
       <c r="D56" s="97"/>
       <c r="E56" s="70"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="112"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
       <c r="I56" s="70"/>
     </row>
     <row r="57" spans="1:9" ht="14.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,9 +6496,9 @@
       </c>
       <c r="D57" s="97"/>
       <c r="E57" s="70"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="112"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
       <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -6524,17 +6511,17 @@
       <c r="I58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
@@ -6552,11 +6539,11 @@
       <c r="E60" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="121" t="s">
+      <c r="F60" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
       <c r="I60" s="69" t="s">
         <v>28</v>
       </c>
@@ -6573,9 +6560,9 @@
       </c>
       <c r="D61" s="97"/>
       <c r="E61" s="78"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="112"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
       <c r="I61" s="70"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -6590,9 +6577,9 @@
       </c>
       <c r="D62" s="97"/>
       <c r="E62" s="78"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="112"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="116"/>
       <c r="I62" s="70"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -6607,9 +6594,9 @@
       </c>
       <c r="D63" s="97"/>
       <c r="E63" s="78"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="112"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="116"/>
       <c r="I63" s="70"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6624,9 +6611,9 @@
       </c>
       <c r="D64" s="97"/>
       <c r="E64" s="78"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="112"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="116"/>
       <c r="I64" s="70"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -6641,13 +6628,56 @@
       </c>
       <c r="D65" s="97"/>
       <c r="E65" s="78"/>
-      <c r="F65" s="110"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="F3:H3"/>
@@ -6664,49 +6694,6 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="A59:I59"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -7335,22 +7322,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -7368,11 +7355,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -7386,9 +7373,9 @@
       <c r="E4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -7402,9 +7389,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="112"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -7418,9 +7405,9 @@
       <c r="E6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -7434,9 +7421,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -7450,9 +7437,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -7466,9 +7453,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -7482,9 +7469,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -7498,9 +7485,9 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="116"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -7514,9 +7501,9 @@
       <c r="E12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
@@ -7530,9 +7517,9 @@
       <c r="E13" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
@@ -7546,9 +7533,9 @@
       <c r="E14" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -7562,9 +7549,9 @@
       <c r="E15" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -7578,9 +7565,9 @@
       <c r="E16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -7594,9 +7581,9 @@
       <c r="E17" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="126" t="s">
@@ -7644,9 +7631,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="126" t="s">
@@ -7694,21 +7681,21 @@
       <c r="E25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="27" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
     </row>
     <row r="28" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
@@ -7726,11 +7713,11 @@
       <c r="E28" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
     </row>
     <row r="29" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -7855,16 +7842,16 @@
       <c r="H36" s="78"/>
     </row>
     <row r="37" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
     </row>
     <row r="38" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80" t="s">
@@ -7882,11 +7869,11 @@
       <c r="E38" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="121" t="s">
+      <c r="F38" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
     </row>
     <row r="39" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -7978,16 +7965,16 @@
       <c r="H44" s="78"/>
     </row>
     <row r="45" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80" t="s">
@@ -8005,11 +7992,11 @@
       <c r="E46" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="121" t="s">
+      <c r="F46" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
     </row>
     <row r="47" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -8134,13 +8121,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
@@ -8157,12 +8143,13 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8190,22 +8177,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -8223,11 +8210,11 @@
       <c r="E3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A4" s="87">
@@ -8241,9 +8228,9 @@
       <c r="E4" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87">
@@ -8257,9 +8244,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
     </row>
     <row r="6" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
@@ -8289,9 +8276,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
@@ -8305,9 +8292,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
@@ -8321,9 +8308,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
@@ -8337,9 +8324,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
     </row>
     <row r="11" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
@@ -8353,9 +8340,9 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="54.7" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
@@ -8369,9 +8356,9 @@
       <c r="E12" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
     </row>
     <row r="13" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
@@ -8485,11 +8472,11 @@
       <c r="E20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
@@ -8503,9 +8490,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -8524,16 +8511,16 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
@@ -8551,11 +8538,11 @@
       <c r="E25" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
     </row>
     <row r="26" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83"/>
@@ -8567,9 +8554,9 @@
       <c r="E26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="135"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="1:8" ht="60.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83"/>
@@ -8577,19 +8564,12 @@
       <c r="C27" s="82"/>
       <c r="D27" s="78"/>
       <c r="E27" s="108"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:H2"/>
@@ -8602,6 +8582,13 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8630,22 +8617,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -8663,11 +8650,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -8681,9 +8668,9 @@
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:8" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -8697,9 +8684,9 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -8713,9 +8700,9 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -8729,9 +8716,9 @@
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -8745,9 +8732,9 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -8761,9 +8748,9 @@
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -8777,9 +8764,9 @@
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
     </row>
     <row r="11" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -8793,9 +8780,9 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="12" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
@@ -8877,11 +8864,11 @@
       <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -8895,9 +8882,9 @@
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -8911,21 +8898,21 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
@@ -8943,11 +8930,11 @@
       <c r="E22" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="121" t="s">
+      <c r="F22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
     </row>
     <row r="23" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A23" s="70">
@@ -8961,9 +8948,9 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
@@ -8977,9 +8964,9 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25" spans="1:8" ht="60.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
@@ -8993,20 +8980,12 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A2:H2"/>
@@ -9020,6 +8999,14 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9043,10 +9030,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="76"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9055,16 +9042,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
@@ -9082,11 +9069,11 @@
       <c r="E3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
@@ -9100,9 +9087,9 @@
       <c r="E4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
@@ -9116,9 +9103,9 @@
       <c r="E5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
@@ -9132,9 +9119,9 @@
       <c r="E6" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="133"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
@@ -9148,9 +9135,9 @@
       <c r="E7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
@@ -9164,9 +9151,9 @@
       <c r="E8" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="133"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
@@ -9180,9 +9167,9 @@
       <c r="E9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
@@ -9196,9 +9183,9 @@
       <c r="E10" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="136"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
@@ -9212,21 +9199,21 @@
       <c r="E11" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
@@ -9244,11 +9231,11 @@
       <c r="E14" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
@@ -9262,9 +9249,9 @@
       <c r="E15" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
@@ -9278,9 +9265,9 @@
       <c r="E16" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="133"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
@@ -9294,9 +9281,9 @@
       <c r="E17" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
@@ -9310,9 +9297,9 @@
       <c r="E18" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="135"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
@@ -9326,9 +9313,9 @@
       <c r="E19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="135"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
@@ -9342,9 +9329,9 @@
       <c r="E20" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="133"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="135"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
@@ -9358,9 +9345,9 @@
       <c r="E21" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="133"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
@@ -9374,9 +9361,9 @@
       <c r="E22" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="133"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
@@ -9390,9 +9377,9 @@
       <c r="E23" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
@@ -9406,9 +9393,9 @@
       <c r="E24" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
@@ -9422,9 +9409,9 @@
       <c r="E25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
@@ -9438,9 +9425,9 @@
       <c r="E26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="135"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="126" t="s">
@@ -9470,11 +9457,11 @@
       <c r="E29" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="121" t="s">
+      <c r="F29" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
@@ -9488,9 +9475,9 @@
       <c r="E30" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="136"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
@@ -9504,21 +9491,21 @@
       <c r="E31" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
@@ -9536,11 +9523,11 @@
       <c r="E34" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="121" t="s">
+      <c r="F34" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
@@ -9554,9 +9541,9 @@
       <c r="E35" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="133"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="136"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
@@ -9570,9 +9557,9 @@
       <c r="E36" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="135"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="136"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
@@ -9586,21 +9573,21 @@
       <c r="E37" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="135"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="136"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="121" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
@@ -9618,11 +9605,11 @@
       <c r="E40" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="121" t="s">
+      <c r="F40" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
@@ -9636,9 +9623,9 @@
       <c r="E41" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="135"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="136"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
@@ -9652,21 +9639,21 @@
       <c r="E42" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="133"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="135"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="136"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="122"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="69" t="s">
@@ -9684,11 +9671,11 @@
       <c r="E45" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="121" t="s">
+      <c r="F45" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
@@ -9702,9 +9689,9 @@
       <c r="E46" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="133"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="135"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="136"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
@@ -9718,9 +9705,9 @@
       <c r="E47" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="135"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="136"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
@@ -9734,9 +9721,9 @@
       <c r="E48" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="133"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="135"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="136"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
@@ -9750,9 +9737,9 @@
       <c r="E49" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="136"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
@@ -9766,12 +9753,41 @@
       <c r="E50" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="133"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="135"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="F40:H40"/>
@@ -9788,35 +9804,6 @@
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9843,10 +9830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -9855,16 +9842,16 @@
       <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -9882,11 +9869,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" ht="54.7" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -9900,21 +9887,21 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="145" t="s">
         <v>222</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
@@ -9932,11 +9919,11 @@
       <c r="E7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
     </row>
     <row r="8" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
@@ -9950,9 +9937,9 @@
       <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="145"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
@@ -9966,21 +9953,21 @@
       <c r="E9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
@@ -9998,11 +9985,11 @@
       <c r="E12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
     </row>
     <row r="13" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -10016,9 +10003,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
     </row>
     <row r="14" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -10032,9 +10019,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
@@ -10048,9 +10035,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="143"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
@@ -10064,9 +10051,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="143"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
@@ -10080,21 +10067,21 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
+      <c r="A19" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
@@ -10112,11 +10099,11 @@
       <c r="E20" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
     </row>
     <row r="21" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
@@ -10130,9 +10117,9 @@
       <c r="E21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="145"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:8" ht="109.4" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
@@ -10146,9 +10133,9 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="145"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
@@ -10162,9 +10149,9 @@
       <c r="E23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
@@ -10178,9 +10165,9 @@
       <c r="E24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
     </row>
     <row r="25" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
@@ -10194,9 +10181,9 @@
       <c r="E25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
     </row>
     <row r="26" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
@@ -10210,9 +10197,9 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
@@ -10226,9 +10213,9 @@
       <c r="E27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
@@ -10242,9 +10229,9 @@
       <c r="E28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
     </row>
     <row r="29" spans="1:8" ht="41.05" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
@@ -10258,12 +10245,23 @@
       <c r="E29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A1:B1"/>
@@ -10279,17 +10277,6 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10328,16 +10315,16 @@
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -10355,11 +10342,11 @@
       <c r="E3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
@@ -10373,9 +10360,9 @@
       <c r="E4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
@@ -10389,9 +10376,9 @@
       <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142"/>
     </row>
     <row r="6" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
@@ -10405,9 +10392,9 @@
       <c r="E6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
     </row>
     <row r="7" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
@@ -10421,21 +10408,21 @@
       <c r="E7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
@@ -10453,11 +10440,11 @@
       <c r="E10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
@@ -10471,9 +10458,9 @@
       <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
@@ -10487,9 +10474,9 @@
       <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
@@ -10503,9 +10490,9 @@
       <c r="E13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
@@ -10519,9 +10506,9 @@
       <c r="E14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
@@ -10535,9 +10522,9 @@
       <c r="E15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
     </row>
     <row r="16" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
@@ -10551,9 +10538,9 @@
       <c r="E16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
     </row>
     <row r="17" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
@@ -10567,9 +10554,9 @@
       <c r="E17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
@@ -10583,21 +10570,21 @@
       <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="145" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
@@ -10615,11 +10602,11 @@
       <c r="E21" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="142" t="s">
+      <c r="F21" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
@@ -10633,21 +10620,21 @@
       <c r="E22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="145"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="145" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
@@ -10665,11 +10652,11 @@
       <c r="E25" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="142" t="s">
+      <c r="F25" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
@@ -10683,21 +10670,21 @@
       <c r="E26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
@@ -10715,11 +10702,11 @@
       <c r="E29" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="142" t="s">
+      <c r="F29" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
@@ -10733,9 +10720,9 @@
       <c r="E30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
@@ -10749,21 +10736,21 @@
       <c r="E31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="145"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
@@ -10781,11 +10768,11 @@
       <c r="E34" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="142" t="s">
+      <c r="F34" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
@@ -10847,9 +10834,9 @@
       <c r="E38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="145"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="142"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
@@ -10863,21 +10850,21 @@
       <c r="E39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="145" t="s">
         <v>264</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
@@ -10895,11 +10882,11 @@
       <c r="E42" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="142" t="s">
+      <c r="F42" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
@@ -10913,9 +10900,9 @@
       <c r="E43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="143"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="145"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="142"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
@@ -10929,9 +10916,9 @@
       <c r="E44" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="143"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="145"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="142"/>
     </row>
     <row r="45" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
@@ -10945,9 +10932,9 @@
       <c r="E45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="145"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="142"/>
     </row>
     <row r="46" spans="1:8" ht="27.35" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
@@ -10961,12 +10948,36 @@
       <c r="E46" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="143"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="145"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -10983,30 +10994,6 @@
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11015,12 +11002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077786F373D2AAD43B0DED9E3E63079AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="850873fd4ab22328f3b8caed48280dc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -11134,6 +11115,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11144,21 +11131,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CC75B6-FA6A-410C-BA87-947D6406B62A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CBD8862-A48D-46F6-9681-2DE5BA62498E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11174,6 +11146,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CC75B6-FA6A-410C-BA87-947D6406B62A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{038EC4EA-5804-43FE-9B98-16EE1445759C}">
   <ds:schemaRefs>
